--- a/medicine/Mort/Cimetière_de_Bruxelles/Cimetière_de_Bruxelles.xlsx
+++ b/medicine/Mort/Cimetière_de_Bruxelles/Cimetière_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bruxelles</t>
+          <t>Cimetière_de_Bruxelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bruxelles, situé sur le territoire de la commune d'Evere, est le cimetière principal de la Ville de Bruxelles, qui possède également le cimetière de Laeken et ceux des anciennes communes de Haren et de Neder-Over-Heembeek. Avec une superficie de 38 hectares, il est le plus étendu des cimetières de la région de Bruxelles-Capitale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bruxelles</t>
+          <t>Cimetière_de_Bruxelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite du décret de l'empereur Joseph II du 26 juin 1784, interdisant d'ensevelir dans les églises et ordonnant la suppression des cimetières dans l'enceinte des villes, les paroisses de la ville de Bruxelles gestionnaires des cimetières, s'associèrent pour ouvrir trois cimetières à peu de distance des portes, à Saint-Josse-ten-Noode, Saint-Gilles et Molenbeek-Saint-Jean. 
 Moins d'un siècle plus tard, ces trois cimetières, malgré des agrandissements successifs, sont devenus trop exigus pour répondre à l'extension démographique de la ville, rattrapés par l'urbanisation des communes de la première ceinture, il n'est plus possible de les étendre davantage.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bruxelles</t>
+          <t>Cimetière_de_Bruxelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Mémoriaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espace largement disponible a permis l'installation de nombreux monuments commémoratifs et d'espaces particuliers dédiés aux victimes ou combattants de conflits ou d'événements tragiques.
 Parmi ceux-ci :
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bruxelles</t>
+          <t>Cimetière_de_Bruxelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Personnalités enterrées au cimetière de Bruxelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jules Anspach (1829-1879), bourgmestre de Bruxelles
@@ -594,7 +612,7 @@
 Alain Carpentier de Changy (1922-1994), pilote de Formule 1, ingénieur
 Clara Clairbert (1896-1970), soprano
 François-Antoine Curtet (1763-1830), médecin
-Jacques Louis David (1748-1825), peintre français, patrimoine classé en 1997[1], concession no 537 (parcelle no 184 G2)
+Jacques Louis David (1748-1825), peintre français, patrimoine classé en 1997, concession no 537 (parcelle no 184 G2)
 Paul Henry de La Lindi (1906-1943), aviateur et résistant pendant la Seconde Guerre mondiale
 César De Paepe (1842-1890) médecin, sociologue et homme politique
 François-Auguste Gevaert (1828-1908), compositeur et théoricien de la musique
@@ -602,13 +620,13 @@
 Marcellin Jobard (1792-1861), lithographe, photographe, journaliste et inventeur belge
 Jules Lagae (1862-1931) sculpteur belge
 Adolphe Max (1869-1939), bourgmestre de Bruxelles
-Georges Nélis (1886-1929), aviateur, fondateur de la SABCA et premier directeur de la Sabena[2]
+Georges Nélis (1886-1929), aviateur, fondateur de la SABCA et premier directeur de la Sabena
 Aimé Rutot (1847-1933), préhistorien belge
 Lambert Adolphe Jacques Quetelet (1796-1874), mathématicien, astronome, statisticien et sociologue
 Alfred Steux (1918-1944), résistant belge
 François Van Campenhout (1779-1848), compositeur de La Brabançonne
 Paul Vanden Boeynants (1919-2001) premier ministre
-Jeanne Van Calck (1897-1906), enfant martyr, symbole de l'enfance assassinée[3]
+Jeanne Van Calck (1897-1906), enfant martyr, symbole de l'enfance assassinée
 Henri van Dievoet (1869- 1931), architecte
 Jules van Dievoet, juriste, avocat à la Cour de cassation
 Théodore Verhaegen (1796-1882), fondateur de l'Université libre de Bruxelles
